--- a/data_handler/config_process_data(India)/config-process-All sources(India).xlsx
+++ b/data_handler/config_process_data(India)/config-process-All sources(India).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\my documents\documents\vchat\newchatfiles\scripts\data_handler\config_process_data(india)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Documents\vchat\NewChatFiles\Scripts\data_handler\config_process_data(India)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45015DFC-792D-4576-A555-3F7558B30CA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B345B4F1-A279-4C32-A514-2D5B045877AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555" tabRatio="684" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9555" tabRatio="684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="253">
   <si>
     <t>Case title</t>
   </si>
@@ -1077,6 +1077,10 @@
   </si>
   <si>
     <t>内部型号</t>
+  </si>
+  <si>
+    <t>Result index, return findall result according to index (default 0 )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1317,7 +1321,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1518,6 +1522,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1821,7 +1827,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1838,15 +1844,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="72"/>
+      <c r="E1" s="74"/>
       <c r="F1" s="48" t="s">
         <v>221</v>
       </c>
@@ -2326,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A70EF6-FA09-467E-A067-26EB17448914}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2338,11 +2344,12 @@
     <col min="2" max="2" width="15.375" style="65" customWidth="1"/>
     <col min="3" max="3" width="26.875" style="65" customWidth="1"/>
     <col min="4" max="4" width="45.75" style="65" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="64" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="64"/>
+    <col min="5" max="5" width="45.75" style="73" customWidth="1"/>
+    <col min="6" max="6" width="48.875" style="64" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>53</v>
       </c>
@@ -2355,11 +2362,14 @@
       <c r="D1" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="68" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="69">
         <v>1</v>
       </c>
@@ -2372,7 +2382,8 @@
       <c r="D2" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="71" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2388,7 +2399,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D9" sqref="C1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2785,7 +2796,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3019,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
